--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/63_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/63_11R22.xlsx
@@ -689,46 +689,46 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05027127526523962</v>
+        <v>0.05017680814737234</v>
       </c>
       <c r="E2">
-        <v>0.1222581803075866</v>
+        <v>0.1082723864823515</v>
       </c>
       <c r="F2">
-        <v>0.4464464645675328</v>
+        <v>0.3699019960957527</v>
       </c>
       <c r="G2">
-        <v>0.1221089397079538</v>
+        <v>0.1081519448695106</v>
       </c>
       <c r="H2">
-        <v>0.01700147511216995</v>
+        <v>0.02332708763438794</v>
       </c>
       <c r="I2">
-        <v>0.01432126311808001</v>
+        <v>0.0211640766566913</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.006529660145584581</v>
+        <v>0.01487602078628841</v>
       </c>
       <c r="L2">
-        <v>0.00108249413915575</v>
+        <v>0.01047999543634506</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0002964467193159885</v>
       </c>
       <c r="N2">
-        <v>0.0009129630852946645</v>
+        <v>0.01034317882207327</v>
       </c>
       <c r="O2">
-        <v>0.007392084423924092</v>
+        <v>0.01557202288820941</v>
       </c>
       <c r="P2">
-        <v>0.05450611437748384</v>
+        <v>0.05359444955363492</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002248413143299467</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -737,52 +737,52 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.003560475412067254</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.001875066271872935</v>
       </c>
       <c r="W2">
-        <v>0.02601491857744207</v>
+        <v>0.03060120520614057</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.004608241575050736</v>
       </c>
       <c r="Y2">
-        <v>0.02007506437053477</v>
+        <v>0.02580756579112831</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.0004891381524582665</v>
       </c>
       <c r="AA2">
-        <v>0.03870125088835333</v>
+        <v>0.0408394535669857</v>
       </c>
       <c r="AB2">
-        <v>0.01350321931201975</v>
+        <v>0.02050389091890383</v>
       </c>
       <c r="AC2">
-        <v>0.02031645418555763</v>
+        <v>0.02600237456780341</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.003256031838569544</v>
       </c>
       <c r="AE2">
-        <v>0.02690872026750446</v>
+        <v>0.03132252981469834</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.003581205489489995</v>
       </c>
       <c r="AG2">
-        <v>0.01164945814858224</v>
+        <v>0.01900785039845816</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.0001401437611398927</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,55 +799,55 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05026589338730262</v>
+        <v>0.05175139136394388</v>
       </c>
       <c r="E3">
-        <v>0.1590547699181399</v>
+        <v>0.1465610742713361</v>
       </c>
       <c r="F3">
-        <v>0.3563179814252341</v>
+        <v>0.3184762840674409</v>
       </c>
       <c r="G3">
-        <v>0.1745522467868859</v>
+        <v>0.1600671505784478</v>
       </c>
       <c r="H3">
-        <v>0.0224624715379248</v>
+        <v>0.02752066398316465</v>
       </c>
       <c r="I3">
-        <v>0.02200306747644844</v>
+        <v>0.02712029259609003</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.007983512738412414</v>
+        <v>0.01490222783062431</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.727696645832396E-05</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00481765155511651</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0001618536354248666</v>
       </c>
       <c r="P3">
-        <v>0.02799846500541998</v>
+        <v>0.03234529129772134</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0007727183620115234</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.003500120040996738</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -856,37 +856,37 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.02974344171050223</v>
+        <v>0.03386604133545831</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.02506773408396289</v>
+        <v>0.02979115453106879</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.03663759912565145</v>
+        <v>0.03987431074026889</v>
       </c>
       <c r="AB3">
-        <v>0.01435563589175506</v>
+        <v>0.02045554352686664</v>
       </c>
       <c r="AC3">
-        <v>0.02150125693530683</v>
+        <v>0.02668296389298739</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03487617479415477</v>
+        <v>0.03833922656934974</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01717974918289883</v>
+        <v>0.02291676285522321</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -909,43 +909,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2943213283311363</v>
+        <v>0.2487166344860242</v>
       </c>
       <c r="E4">
-        <v>0.05230181659181025</v>
+        <v>0.05232140233439907</v>
       </c>
       <c r="F4">
-        <v>0.3597687889456396</v>
+        <v>0.3018262748152056</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.007183637722097465</v>
+        <v>0.01570867160994503</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0006381745357080806</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.005479634424509138</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.512106561001899E-05</v>
       </c>
       <c r="L4">
-        <v>0.02926172633794116</v>
+        <v>0.03362471196557974</v>
       </c>
       <c r="M4">
-        <v>0.0007519634961031186</v>
+        <v>0.01048946368881553</v>
       </c>
       <c r="N4">
-        <v>0.003963267529695806</v>
+        <v>0.01309538912290278</v>
       </c>
       <c r="O4">
-        <v>0.09286479354853734</v>
+        <v>0.08523765449491844</v>
       </c>
       <c r="P4">
-        <v>0.02807313113895594</v>
+        <v>0.03266018464973904</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -954,55 +954,55 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.001671552347221146</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.001624500233130373</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.05632289886578625</v>
+        <v>0.0555844507598041</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.004985494344246223</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.006717145428901239</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.005687868822876847</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.001200431857408819</v>
       </c>
       <c r="AA4">
-        <v>0.03898213655671936</v>
+        <v>0.04151268020337273</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.0006485831724497937</v>
       </c>
       <c r="AC4">
-        <v>0.005305971531258637</v>
+        <v>0.01418497343865776</v>
       </c>
       <c r="AD4">
-        <v>0.01304209320757299</v>
+        <v>0.02046272105352536</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.007207365359677977</v>
       </c>
       <c r="AF4">
-        <v>0.0137459660589164</v>
+        <v>0.02103390339767333</v>
       </c>
       <c r="AG4">
-        <v>0.004110480137829569</v>
+        <v>0.01321484996365192</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.001084850014122488</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.00335531240992345</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,43 +1019,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1729002386830045</v>
+        <v>0.1514812774246559</v>
       </c>
       <c r="E5">
-        <v>0.0076487841857635</v>
+        <v>0.01547306174588269</v>
       </c>
       <c r="F5">
-        <v>0.5570038134192203</v>
+        <v>0.4676130899684494</v>
       </c>
       <c r="G5">
-        <v>0.04274474983070176</v>
+        <v>0.04435837279753986</v>
       </c>
       <c r="H5">
-        <v>0.0413738049007074</v>
+        <v>0.04323003311490484</v>
       </c>
       <c r="I5">
-        <v>0.004144928657331091</v>
+        <v>0.01258925573117524</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01854448849737875</v>
+        <v>0.02444063971059614</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.002952092449139024</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00338373085623305</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.002576546554677725</v>
       </c>
       <c r="O5">
-        <v>0.02419996875679432</v>
+        <v>0.02909531449836013</v>
       </c>
       <c r="P5">
-        <v>0.02979261811386093</v>
+        <v>0.03369827707007152</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,55 +1064,55 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0004854540717733425</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0008810192947395699</v>
       </c>
       <c r="V5">
-        <v>0.001474395082352065</v>
+        <v>0.01039130529528836</v>
       </c>
       <c r="W5">
-        <v>0.01600436991989613</v>
+        <v>0.02235002576479464</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.01544338806221371</v>
+        <v>0.02188831641570795</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.03615203805171234</v>
+        <v>0.03893232091634596</v>
       </c>
       <c r="AB5">
-        <v>0.003994287981948967</v>
+        <v>0.01246527274095164</v>
       </c>
       <c r="AC5">
-        <v>0.01867782648321598</v>
+        <v>0.02455038193096628</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.002025359830035705</v>
       </c>
       <c r="AE5">
-        <v>0.009900299373898488</v>
+        <v>0.01732614415440702</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.005516734675920325</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.008572792901403959</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.003723180085979867</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1129,46 +1129,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03304963354092785</v>
+        <v>0.03692094285154861</v>
       </c>
       <c r="E6">
-        <v>0.1714022291684707</v>
+        <v>0.1533383105521741</v>
       </c>
       <c r="F6">
-        <v>0.3412580169285142</v>
+        <v>0.296264170454175</v>
       </c>
       <c r="G6">
-        <v>0.1657837823912913</v>
+        <v>0.1486106451159134</v>
       </c>
       <c r="H6">
-        <v>0.0467640209035246</v>
+        <v>0.04846097120546836</v>
       </c>
       <c r="I6">
-        <v>0.03306616298755186</v>
+        <v>0.03693485162324016</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06376606877792257</v>
+        <v>0.06276741518709024</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.001385626154445576</v>
       </c>
       <c r="M6">
-        <v>0.01848318056051693</v>
+        <v>0.02466394033545865</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.001545237052202121</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.02013165879070142</v>
+        <v>0.02605105920662538</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.0007975688675765207</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1177,46 +1177,46 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.0003753337145926218</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.008327117438859003</v>
       </c>
       <c r="W6">
-        <v>0.02091671466191082</v>
+        <v>0.02671164773848177</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.0003358953017821956</v>
       </c>
       <c r="Y6">
-        <v>0.01092779432766532</v>
+        <v>0.01830642912867198</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02044461078705474</v>
+        <v>0.02631439396711076</v>
       </c>
       <c r="AB6">
-        <v>0.01829069457430881</v>
+        <v>0.0245019722008388</v>
       </c>
       <c r="AC6">
-        <v>0.0158530554669128</v>
+        <v>0.02245081062342166</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.009580357607921719</v>
+        <v>0.01717262289002352</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01028201852480468</v>
+        <v>0.01776303839029953</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1239,43 +1239,43 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3219341657528199</v>
+        <v>0.2752947268233326</v>
       </c>
       <c r="E7">
-        <v>0.05016829091543798</v>
+        <v>0.04969189916685858</v>
       </c>
       <c r="F7">
-        <v>0.2703920883591945</v>
+        <v>0.2325077565672301</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.006102645937532075</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003004580205145837</v>
       </c>
       <c r="J7">
-        <v>0.0120824513455486</v>
+        <v>0.01807544582892836</v>
       </c>
       <c r="K7">
-        <v>0.03739364745854439</v>
+        <v>0.03908719874999063</v>
       </c>
       <c r="L7">
-        <v>0.03079166816463683</v>
+        <v>0.03360665341762956</v>
       </c>
       <c r="M7">
-        <v>0.02672237695334316</v>
+        <v>0.03022858542298224</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.003252903053560306</v>
       </c>
       <c r="O7">
-        <v>0.1163675966391072</v>
+        <v>0.1046463726418368</v>
       </c>
       <c r="P7">
-        <v>0.0372790748304479</v>
+        <v>0.038992087806109</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1284,55 +1284,55 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.0002621594514345234</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.006117174696658097</v>
+        <v>0.01312345073186875</v>
       </c>
       <c r="V7">
-        <v>0.002165203516593109</v>
+        <v>0.009842774401284376</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.007006808330375908</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.0001984421647047931</v>
       </c>
       <c r="Z7">
-        <v>0.001762391949671841</v>
+        <v>0.009508385734699396</v>
       </c>
       <c r="AA7">
-        <v>0.02008364670442966</v>
+        <v>0.02471753177395566</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.003624008642117045</v>
+        <v>0.0110537820802834</v>
       </c>
       <c r="AD7">
-        <v>0.02117812081397935</v>
+        <v>0.02562609490410937</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.005219285818022091</v>
       </c>
       <c r="AF7">
-        <v>0.0356628003923535</v>
+        <v>0.03765035907095722</v>
       </c>
       <c r="AG7">
-        <v>0.005467580390789945</v>
+        <v>0.01258419865571647</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.000807712474327054</v>
+        <v>0.008715871261451935</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1352,43 +1352,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3703583229273735</v>
+        <v>0.3190832548477574</v>
       </c>
       <c r="F8">
-        <v>0.1631712539261008</v>
+        <v>0.1457441873340423</v>
       </c>
       <c r="G8">
-        <v>0.1152125307147691</v>
+        <v>0.1056204460181712</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00297000858548336</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.006765638389884093</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.005751663417562264</v>
       </c>
       <c r="L8">
-        <v>0.04101440397033009</v>
+        <v>0.04354401353064704</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.009035163502819668</v>
       </c>
       <c r="N8">
-        <v>0.02891659027016313</v>
+        <v>0.03342261089750923</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.163629432573798</v>
+        <v>0.146127513667724</v>
       </c>
       <c r="Q8">
-        <v>0.01272697452192889</v>
+        <v>0.01987788095499026</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.001655517849078719</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.008295717295795308</v>
       </c>
       <c r="W8">
-        <v>0.005521313301167433</v>
+        <v>0.01384940339194864</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1415,37 +1415,37 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.00101671363030766</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.001695794697502626</v>
       </c>
       <c r="AB8">
-        <v>0.03690274762409462</v>
+        <v>0.04010407550541764</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.002809081587140852</v>
       </c>
       <c r="AE8">
-        <v>0.01555903256089191</v>
+        <v>0.02224726772215166</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.00490696162492031</v>
       </c>
       <c r="AG8">
-        <v>0.03737799628653201</v>
+        <v>0.04050168313788785</v>
       </c>
       <c r="AH8">
-        <v>0.009609401322850385</v>
+        <v>0.01726962343274741</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.007705778978510939</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1459,43 +1459,43 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.351681390018422</v>
+        <v>0.2948229029799818</v>
       </c>
       <c r="E9">
-        <v>0.07948132596795318</v>
+        <v>0.07426637786651466</v>
       </c>
       <c r="F9">
-        <v>0.1929299664034869</v>
+        <v>0.1661908158735137</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0002340119481237643</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001739393139006768</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.005271797067890838</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.009720838390946961</v>
       </c>
       <c r="K9">
-        <v>0.03910923823546811</v>
+        <v>0.04155394110455276</v>
       </c>
       <c r="L9">
-        <v>0.02033594174049322</v>
+        <v>0.02634243461832067</v>
       </c>
       <c r="M9">
-        <v>0.01985025267801086</v>
+        <v>0.02594889359444029</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.001578005923287686</v>
       </c>
       <c r="O9">
-        <v>0.1504108237812406</v>
+        <v>0.1317386772221878</v>
       </c>
       <c r="P9">
-        <v>0.03310001597979112</v>
+        <v>0.03668482696980777</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1507,52 +1507,52 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.0005601337812606856</v>
       </c>
       <c r="U9">
-        <v>0.005410798310585344</v>
+        <v>0.01424898495950563</v>
       </c>
       <c r="V9">
-        <v>0.007065870830632974</v>
+        <v>0.01559004652429943</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.001610309693981349</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.0006800360916307055</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.001847412815578854</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.005608171407400984</v>
       </c>
       <c r="AA9">
-        <v>0.03773588598285681</v>
+        <v>0.04044115003431796</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.0007715598296477449</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.005956720244203569</v>
       </c>
       <c r="AD9">
-        <v>0.02480491684602748</v>
+        <v>0.02996352715381867</v>
       </c>
       <c r="AE9">
-        <v>0.002570490091028792</v>
+        <v>0.01194755820069171</v>
       </c>
       <c r="AF9">
-        <v>0.0261938456494182</v>
+        <v>0.03108893949188874</v>
       </c>
       <c r="AG9">
-        <v>0.009319237484584448</v>
+        <v>0.01741589002928093</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.006176643043917456</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,43 +1569,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3380277035844323</v>
+        <v>0.2823592909702591</v>
       </c>
       <c r="E10">
-        <v>0.08147368607422227</v>
+        <v>0.07551710793121685</v>
       </c>
       <c r="F10">
-        <v>0.2367866371737178</v>
+        <v>0.2007354544276898</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0008443390111766261</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.005063549593654328</v>
       </c>
       <c r="J10">
-        <v>0.00876010005615473</v>
+        <v>0.01689305279251411</v>
       </c>
       <c r="K10">
-        <v>0.02476292625069484</v>
+        <v>0.02979505112018136</v>
       </c>
       <c r="L10">
-        <v>0.02562597837699567</v>
+        <v>0.03049087178053584</v>
       </c>
       <c r="M10">
-        <v>0.01943792321522947</v>
+        <v>0.02550186069099094</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.007086054829239921</v>
       </c>
       <c r="O10">
-        <v>0.1310047672829021</v>
+        <v>0.1154506746120804</v>
       </c>
       <c r="P10">
-        <v>0.02742506082519433</v>
+        <v>0.03194135049322186</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1617,52 +1617,52 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.002236012232473812</v>
       </c>
       <c r="U10">
-        <v>0.004954031855220938</v>
+        <v>0.01382447696931424</v>
       </c>
       <c r="V10">
-        <v>0.005159900964384072</v>
+        <v>0.01399045533275152</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.0002756715805069763</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.003271906664811565</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.002925883366940343</v>
       </c>
       <c r="AA10">
-        <v>0.03228996958395505</v>
+        <v>0.03586359797043309</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.002307123372644215</v>
+        <v>0.01169045336619939</v>
       </c>
       <c r="AD10">
-        <v>0.02140490148381819</v>
+        <v>0.02708770246814828</v>
       </c>
       <c r="AE10">
-        <v>0.0006186246446803613</v>
+        <v>0.01032913084106376</v>
       </c>
       <c r="AF10">
-        <v>0.02860351995163336</v>
+        <v>0.0328914625230412</v>
       </c>
       <c r="AG10">
-        <v>0.01135714530412004</v>
+        <v>0.01898687503608485</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.004947713395469751</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,46 +1679,46 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3477066664273917</v>
+        <v>0.2898498454702409</v>
       </c>
       <c r="E11">
-        <v>0.09812133786394617</v>
+        <v>0.08890086068226627</v>
       </c>
       <c r="F11">
-        <v>0.1834716630930048</v>
+        <v>0.1576190874499224</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.002666896990707596</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0001806209899481499</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003788426445171586</v>
       </c>
       <c r="J11">
-        <v>0.006095488991984423</v>
+        <v>0.01480796022409119</v>
       </c>
       <c r="K11">
-        <v>0.03818933194430715</v>
+        <v>0.04064772090367188</v>
       </c>
       <c r="L11">
-        <v>0.01945394855123956</v>
+        <v>0.02556327545922192</v>
       </c>
       <c r="M11">
-        <v>0.02808146982914695</v>
+        <v>0.03250956373670546</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.001823906448147246</v>
       </c>
       <c r="O11">
-        <v>0.1439891154175712</v>
+        <v>0.1258304485988837</v>
       </c>
       <c r="P11">
-        <v>0.01435432064128216</v>
+        <v>0.02145740490504845</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.000708423348111058</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1730,49 +1730,49 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.01098339096457451</v>
+        <v>0.01874336357808054</v>
       </c>
       <c r="V11">
-        <v>0.007119834683461393</v>
+        <v>0.01563269310386023</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.002309071434212918</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.001417386389291184</v>
       </c>
       <c r="Z11">
-        <v>0.0007646935414614007</v>
+        <v>0.01051596942454927</v>
       </c>
       <c r="AA11">
-        <v>0.0378736751935807</v>
+        <v>0.04039357574231547</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.0006372242495225321</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.006267705009656521</v>
       </c>
       <c r="AD11">
-        <v>0.02863277977070965</v>
+        <v>0.03295344068130872</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.006763998626419372</v>
       </c>
       <c r="AF11">
-        <v>0.03360148671774099</v>
+        <v>0.03695390265742642</v>
       </c>
       <c r="AG11">
-        <v>0.0007980933851401871</v>
+        <v>0.01054286068742101</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.0007627029834570354</v>
+        <v>0.01051436676379817</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05027127526523962</v>
+        <v>0.05017680814737234</v>
       </c>
       <c r="E2">
-        <v>0.1725294555728262</v>
+        <v>0.1584491946297239</v>
       </c>
       <c r="F2">
-        <v>0.6189759201403591</v>
+        <v>0.5283511907254766</v>
       </c>
       <c r="G2">
-        <v>0.7410848598483128</v>
+        <v>0.6365031355949873</v>
       </c>
       <c r="H2">
-        <v>0.7580863349604828</v>
+        <v>0.6598302232293752</v>
       </c>
       <c r="I2">
-        <v>0.7724075980785629</v>
+        <v>0.6809942998860665</v>
       </c>
       <c r="J2">
-        <v>0.7724075980785629</v>
+        <v>0.6809942998860665</v>
       </c>
       <c r="K2">
-        <v>0.7789372582241474</v>
+        <v>0.6958703206723549</v>
       </c>
       <c r="L2">
-        <v>0.7800197523633031</v>
+        <v>0.7063503161086999</v>
       </c>
       <c r="M2">
-        <v>0.7800197523633031</v>
+        <v>0.7066467628280159</v>
       </c>
       <c r="N2">
-        <v>0.7809327154485978</v>
+        <v>0.7169899416500891</v>
       </c>
       <c r="O2">
-        <v>0.7883247998725219</v>
+        <v>0.7325619645382985</v>
       </c>
       <c r="P2">
-        <v>0.8428309142500058</v>
+        <v>0.7861564140919334</v>
       </c>
       <c r="Q2">
-        <v>0.8428309142500058</v>
+        <v>0.7884048272352329</v>
       </c>
       <c r="R2">
-        <v>0.8428309142500058</v>
+        <v>0.7884048272352329</v>
       </c>
       <c r="S2">
-        <v>0.8428309142500058</v>
+        <v>0.7884048272352329</v>
       </c>
       <c r="T2">
-        <v>0.8428309142500058</v>
+        <v>0.7919653026473001</v>
       </c>
       <c r="U2">
-        <v>0.8428309142500058</v>
+        <v>0.7919653026473001</v>
       </c>
       <c r="V2">
-        <v>0.8428309142500058</v>
+        <v>0.7938403689191731</v>
       </c>
       <c r="W2">
-        <v>0.8688458328274479</v>
+        <v>0.8244415741253136</v>
       </c>
       <c r="X2">
-        <v>0.8688458328274479</v>
+        <v>0.8290498157003643</v>
       </c>
       <c r="Y2">
-        <v>0.8889208971979826</v>
+        <v>0.8548573814914926</v>
       </c>
       <c r="Z2">
-        <v>0.8889208971979826</v>
+        <v>0.8553465196439508</v>
       </c>
       <c r="AA2">
-        <v>0.9276221480863359</v>
+        <v>0.8961859732109365</v>
       </c>
       <c r="AB2">
-        <v>0.9411253673983557</v>
+        <v>0.9166898641298403</v>
       </c>
       <c r="AC2">
-        <v>0.9614418215839133</v>
+        <v>0.9426922386976437</v>
       </c>
       <c r="AD2">
-        <v>0.9614418215839133</v>
+        <v>0.9459482705362133</v>
       </c>
       <c r="AE2">
-        <v>0.9883505418514178</v>
+        <v>0.9772708003509116</v>
       </c>
       <c r="AF2">
-        <v>0.9883505418514178</v>
+        <v>0.9808520058404017</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9998598562388599</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9998598562388599</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,91 +2022,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05026589338730262</v>
+        <v>0.05175139136394388</v>
       </c>
       <c r="E3">
-        <v>0.2093206633054425</v>
+        <v>0.1983124656352799</v>
       </c>
       <c r="F3">
-        <v>0.5656386447306766</v>
+        <v>0.5167887497027208</v>
       </c>
       <c r="G3">
-        <v>0.7401908915175625</v>
+        <v>0.6768559002811687</v>
       </c>
       <c r="H3">
-        <v>0.7626533630554873</v>
+        <v>0.7043765642643334</v>
       </c>
       <c r="I3">
-        <v>0.7846564305319357</v>
+        <v>0.7314968568604234</v>
       </c>
       <c r="J3">
-        <v>0.7846564305319357</v>
+        <v>0.7314968568604234</v>
       </c>
       <c r="K3">
-        <v>0.7926399432703481</v>
+        <v>0.7463990846910478</v>
       </c>
       <c r="L3">
-        <v>0.7926399432703481</v>
+        <v>0.7464763616575061</v>
       </c>
       <c r="M3">
-        <v>0.7926399432703481</v>
+        <v>0.7512940132126226</v>
       </c>
       <c r="N3">
-        <v>0.7926399432703481</v>
+        <v>0.7512940132126226</v>
       </c>
       <c r="O3">
-        <v>0.7926399432703481</v>
+        <v>0.7514558668480474</v>
       </c>
       <c r="P3">
-        <v>0.8206384082757682</v>
+        <v>0.7838011581457688</v>
       </c>
       <c r="Q3">
-        <v>0.8206384082757682</v>
+        <v>0.7838011581457688</v>
       </c>
       <c r="R3">
-        <v>0.8206384082757682</v>
+        <v>0.7845738765077803</v>
       </c>
       <c r="S3">
-        <v>0.8206384082757682</v>
+        <v>0.7845738765077803</v>
       </c>
       <c r="T3">
-        <v>0.8206384082757682</v>
+        <v>0.7880739965487771</v>
       </c>
       <c r="U3">
-        <v>0.8206384082757682</v>
+        <v>0.7880739965487771</v>
       </c>
       <c r="V3">
-        <v>0.8206384082757682</v>
+        <v>0.7880739965487771</v>
       </c>
       <c r="W3">
-        <v>0.8503818499862704</v>
+        <v>0.8219400378842354</v>
       </c>
       <c r="X3">
-        <v>0.8503818499862704</v>
+        <v>0.8219400378842354</v>
       </c>
       <c r="Y3">
-        <v>0.8754495840702333</v>
+        <v>0.8517311924153043</v>
       </c>
       <c r="Z3">
-        <v>0.8754495840702333</v>
+        <v>0.8517311924153043</v>
       </c>
       <c r="AA3">
-        <v>0.9120871831958848</v>
+        <v>0.8916055031555732</v>
       </c>
       <c r="AB3">
-        <v>0.9264428190876398</v>
+        <v>0.9120610466824398</v>
       </c>
       <c r="AC3">
-        <v>0.9479440760229466</v>
+        <v>0.9387440105754272</v>
       </c>
       <c r="AD3">
-        <v>0.9479440760229466</v>
+        <v>0.9387440105754272</v>
       </c>
       <c r="AE3">
-        <v>0.9828202508171013</v>
+        <v>0.977083237144777</v>
       </c>
       <c r="AF3">
-        <v>0.9828202508171013</v>
+        <v>0.977083237144777</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -2132,97 +2132,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2943213283311363</v>
+        <v>0.2487166344860242</v>
       </c>
       <c r="E4">
-        <v>0.3466231449229466</v>
+        <v>0.3010380368204232</v>
       </c>
       <c r="F4">
-        <v>0.7063919338685862</v>
+        <v>0.6028643116356288</v>
       </c>
       <c r="G4">
-        <v>0.7063919338685862</v>
+        <v>0.6028643116356288</v>
       </c>
       <c r="H4">
-        <v>0.7135755715906837</v>
+        <v>0.6185729832455739</v>
       </c>
       <c r="I4">
-        <v>0.7135755715906837</v>
+        <v>0.619211157781282</v>
       </c>
       <c r="J4">
-        <v>0.7135755715906837</v>
+        <v>0.6246907922057912</v>
       </c>
       <c r="K4">
-        <v>0.7135755715906837</v>
+        <v>0.6247159132714012</v>
       </c>
       <c r="L4">
-        <v>0.7428372979286249</v>
+        <v>0.6583406252369809</v>
       </c>
       <c r="M4">
-        <v>0.7435892614247279</v>
+        <v>0.6688300889257964</v>
       </c>
       <c r="N4">
-        <v>0.7475525289544237</v>
+        <v>0.6819254780486992</v>
       </c>
       <c r="O4">
-        <v>0.8404173225029611</v>
+        <v>0.7671631325436177</v>
       </c>
       <c r="P4">
-        <v>0.868490453641917</v>
+        <v>0.7998233171933568</v>
       </c>
       <c r="Q4">
-        <v>0.868490453641917</v>
+        <v>0.7998233171933568</v>
       </c>
       <c r="R4">
-        <v>0.868490453641917</v>
+        <v>0.7998233171933568</v>
       </c>
       <c r="S4">
-        <v>0.868490453641917</v>
+        <v>0.8014948695405779</v>
       </c>
       <c r="T4">
-        <v>0.868490453641917</v>
+        <v>0.8031193697737082</v>
       </c>
       <c r="U4">
-        <v>0.868490453641917</v>
+        <v>0.8031193697737082</v>
       </c>
       <c r="V4">
-        <v>0.9248133525077032</v>
+        <v>0.8587038205335124</v>
       </c>
       <c r="W4">
-        <v>0.9248133525077032</v>
+        <v>0.8636893148777586</v>
       </c>
       <c r="X4">
-        <v>0.9248133525077032</v>
+        <v>0.8704064603066598</v>
       </c>
       <c r="Y4">
-        <v>0.9248133525077032</v>
+        <v>0.8760943291295367</v>
       </c>
       <c r="Z4">
-        <v>0.9248133525077032</v>
+        <v>0.8772947609869455</v>
       </c>
       <c r="AA4">
-        <v>0.9637954890644226</v>
+        <v>0.9188074411903182</v>
       </c>
       <c r="AB4">
-        <v>0.9637954890644226</v>
+        <v>0.919456024362768</v>
       </c>
       <c r="AC4">
-        <v>0.9691014605956813</v>
+        <v>0.9336409978014257</v>
       </c>
       <c r="AD4">
-        <v>0.9821435538032542</v>
+        <v>0.954103718854951</v>
       </c>
       <c r="AE4">
-        <v>0.9821435538032542</v>
+        <v>0.9613110842146291</v>
       </c>
       <c r="AF4">
-        <v>0.9958895198621707</v>
+        <v>0.9823449876123024</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9955598375759543</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9966446875900768</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -2242,97 +2242,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1729002386830045</v>
+        <v>0.1514812774246559</v>
       </c>
       <c r="E5">
-        <v>0.180549022868768</v>
+        <v>0.1669543391705385</v>
       </c>
       <c r="F5">
-        <v>0.7375528362879883</v>
+        <v>0.6345674291389879</v>
       </c>
       <c r="G5">
-        <v>0.78029758611869</v>
+        <v>0.6789258019365277</v>
       </c>
       <c r="H5">
-        <v>0.8216713910193975</v>
+        <v>0.7221558350514325</v>
       </c>
       <c r="I5">
-        <v>0.8258163196767285</v>
+        <v>0.7347450907826077</v>
       </c>
       <c r="J5">
-        <v>0.8258163196767285</v>
+        <v>0.7347450907826077</v>
       </c>
       <c r="K5">
-        <v>0.8443608081741073</v>
+        <v>0.7591857304932039</v>
       </c>
       <c r="L5">
-        <v>0.8443608081741073</v>
+        <v>0.762137822942343</v>
       </c>
       <c r="M5">
-        <v>0.8443608081741073</v>
+        <v>0.765521553798576</v>
       </c>
       <c r="N5">
-        <v>0.8443608081741073</v>
+        <v>0.7680981003532538</v>
       </c>
       <c r="O5">
-        <v>0.8685607769309016</v>
+        <v>0.7971934148516139</v>
       </c>
       <c r="P5">
-        <v>0.8983533950447625</v>
+        <v>0.8308916919216854</v>
       </c>
       <c r="Q5">
-        <v>0.8983533950447625</v>
+        <v>0.8308916919216854</v>
       </c>
       <c r="R5">
-        <v>0.8983533950447625</v>
+        <v>0.8308916919216854</v>
       </c>
       <c r="S5">
-        <v>0.8983533950447625</v>
+        <v>0.8313771459934588</v>
       </c>
       <c r="T5">
-        <v>0.8983533950447625</v>
+        <v>0.8313771459934588</v>
       </c>
       <c r="U5">
-        <v>0.8983533950447625</v>
+        <v>0.8322581652881984</v>
       </c>
       <c r="V5">
-        <v>0.8998277901271146</v>
+        <v>0.8426494705834867</v>
       </c>
       <c r="W5">
-        <v>0.9158321600470107</v>
+        <v>0.8649994963482813</v>
       </c>
       <c r="X5">
-        <v>0.9158321600470107</v>
+        <v>0.8649994963482813</v>
       </c>
       <c r="Y5">
-        <v>0.9312755481092244</v>
+        <v>0.8868878127639893</v>
       </c>
       <c r="Z5">
-        <v>0.9312755481092244</v>
+        <v>0.8868878127639893</v>
       </c>
       <c r="AA5">
-        <v>0.9674275861609367</v>
+        <v>0.9258201336803353</v>
       </c>
       <c r="AB5">
-        <v>0.9714218741428857</v>
+        <v>0.938285406421287</v>
       </c>
       <c r="AC5">
-        <v>0.9900997006261018</v>
+        <v>0.9628357883522533</v>
       </c>
       <c r="AD5">
-        <v>0.9900997006261018</v>
+        <v>0.964861148182289</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.982187292336696</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9877040270126163</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9962768199140203</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9962768199140203</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2352,91 +2352,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03304963354092785</v>
+        <v>0.03692094285154861</v>
       </c>
       <c r="E6">
-        <v>0.2044518627093985</v>
+        <v>0.1902592534037227</v>
       </c>
       <c r="F6">
-        <v>0.5457098796379127</v>
+        <v>0.4865234238578977</v>
       </c>
       <c r="G6">
-        <v>0.7114936620292041</v>
+        <v>0.6351340689738111</v>
       </c>
       <c r="H6">
-        <v>0.7582576829327287</v>
+        <v>0.6835950401792794</v>
       </c>
       <c r="I6">
-        <v>0.7913238459202805</v>
+        <v>0.7205298918025196</v>
       </c>
       <c r="J6">
-        <v>0.7913238459202805</v>
+        <v>0.7205298918025196</v>
       </c>
       <c r="K6">
-        <v>0.8550899146982031</v>
+        <v>0.7832973069896099</v>
       </c>
       <c r="L6">
-        <v>0.8550899146982031</v>
+        <v>0.7846829331440555</v>
       </c>
       <c r="M6">
-        <v>0.87357309525872</v>
+        <v>0.8093468734795141</v>
       </c>
       <c r="N6">
-        <v>0.87357309525872</v>
+        <v>0.8108921105317162</v>
       </c>
       <c r="O6">
-        <v>0.87357309525872</v>
+        <v>0.8108921105317162</v>
       </c>
       <c r="P6">
-        <v>0.8937047540494214</v>
+        <v>0.8369431697383416</v>
       </c>
       <c r="Q6">
-        <v>0.8937047540494214</v>
+        <v>0.8377407386059181</v>
       </c>
       <c r="R6">
-        <v>0.8937047540494214</v>
+        <v>0.8377407386059181</v>
       </c>
       <c r="S6">
-        <v>0.8937047540494214</v>
+        <v>0.8377407386059181</v>
       </c>
       <c r="T6">
-        <v>0.8937047540494214</v>
+        <v>0.8381160723205108</v>
       </c>
       <c r="U6">
-        <v>0.8937047540494214</v>
+        <v>0.8381160723205108</v>
       </c>
       <c r="V6">
-        <v>0.8937047540494214</v>
+        <v>0.8464431897593698</v>
       </c>
       <c r="W6">
-        <v>0.9146214687113322</v>
+        <v>0.8731548374978516</v>
       </c>
       <c r="X6">
-        <v>0.9146214687113322</v>
+        <v>0.8734907327996339</v>
       </c>
       <c r="Y6">
-        <v>0.9255492630389975</v>
+        <v>0.8917971619283058</v>
       </c>
       <c r="Z6">
-        <v>0.9255492630389975</v>
+        <v>0.8917971619283058</v>
       </c>
       <c r="AA6">
-        <v>0.9459938738260523</v>
+        <v>0.9181115558954166</v>
       </c>
       <c r="AB6">
-        <v>0.964284568400361</v>
+        <v>0.9426135280962554</v>
       </c>
       <c r="AC6">
-        <v>0.9801376238672739</v>
+        <v>0.9650643387196771</v>
       </c>
       <c r="AD6">
-        <v>0.9801376238672739</v>
+        <v>0.9650643387196771</v>
       </c>
       <c r="AE6">
-        <v>0.9897179814751956</v>
+        <v>0.9822369616097006</v>
       </c>
       <c r="AF6">
-        <v>0.9897179814751956</v>
+        <v>0.9822369616097006</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3219341657528199</v>
+        <v>0.2752947268233326</v>
       </c>
       <c r="E7">
-        <v>0.3721024566682579</v>
+        <v>0.3249866259901911</v>
       </c>
       <c r="F7">
-        <v>0.6424945450274524</v>
+        <v>0.5574943825574212</v>
       </c>
       <c r="G7">
-        <v>0.6424945450274524</v>
+        <v>0.5635970284949533</v>
       </c>
       <c r="H7">
-        <v>0.6424945450274524</v>
+        <v>0.5635970284949533</v>
       </c>
       <c r="I7">
-        <v>0.6424945450274524</v>
+        <v>0.5666016087000991</v>
       </c>
       <c r="J7">
-        <v>0.654576996373001</v>
+        <v>0.5846770545290275</v>
       </c>
       <c r="K7">
-        <v>0.6919706438315454</v>
+        <v>0.6237642532790182</v>
       </c>
       <c r="L7">
-        <v>0.7227623119961822</v>
+        <v>0.6573709066966478</v>
       </c>
       <c r="M7">
-        <v>0.7494846889495254</v>
+        <v>0.68759949211963</v>
       </c>
       <c r="N7">
-        <v>0.7494846889495254</v>
+        <v>0.6908523951731903</v>
       </c>
       <c r="O7">
-        <v>0.8658522855886325</v>
+        <v>0.7954987678150272</v>
       </c>
       <c r="P7">
-        <v>0.9031313604190804</v>
+        <v>0.8344908556211361</v>
       </c>
       <c r="Q7">
-        <v>0.9031313604190804</v>
+        <v>0.8344908556211361</v>
       </c>
       <c r="R7">
-        <v>0.9031313604190804</v>
+        <v>0.8344908556211361</v>
       </c>
       <c r="S7">
-        <v>0.9031313604190804</v>
+        <v>0.8347530150725706</v>
       </c>
       <c r="T7">
-        <v>0.9031313604190804</v>
+        <v>0.8347530150725706</v>
       </c>
       <c r="U7">
-        <v>0.9092485351157384</v>
+        <v>0.8478764658044393</v>
       </c>
       <c r="V7">
-        <v>0.9114137386323315</v>
+        <v>0.8577192402057237</v>
       </c>
       <c r="W7">
-        <v>0.9114137386323315</v>
+        <v>0.8647260485360996</v>
       </c>
       <c r="X7">
-        <v>0.9114137386323315</v>
+        <v>0.8647260485360996</v>
       </c>
       <c r="Y7">
-        <v>0.9114137386323315</v>
+        <v>0.8649244907008043</v>
       </c>
       <c r="Z7">
-        <v>0.9131761305820034</v>
+        <v>0.8744328764355037</v>
       </c>
       <c r="AA7">
-        <v>0.9332597772864331</v>
+        <v>0.8991504082094594</v>
       </c>
       <c r="AB7">
-        <v>0.9332597772864331</v>
+        <v>0.8991504082094594</v>
       </c>
       <c r="AC7">
-        <v>0.9368837859285502</v>
+        <v>0.9102041902897428</v>
       </c>
       <c r="AD7">
-        <v>0.9580619067425296</v>
+        <v>0.9358302851938521</v>
       </c>
       <c r="AE7">
-        <v>0.9580619067425296</v>
+        <v>0.9410495710118743</v>
       </c>
       <c r="AF7">
-        <v>0.993724707134883</v>
+        <v>0.9786999300828315</v>
       </c>
       <c r="AG7">
-        <v>0.999192287525673</v>
+        <v>0.991284128738548</v>
       </c>
       <c r="AH7">
-        <v>0.999192287525673</v>
+        <v>0.991284128738548</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2575,100 +2575,100 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3703583229273735</v>
+        <v>0.3190832548477574</v>
       </c>
       <c r="F8">
-        <v>0.5335295768534742</v>
+        <v>0.4648274421817997</v>
       </c>
       <c r="G8">
-        <v>0.6487421075682434</v>
+        <v>0.5704478881999708</v>
       </c>
       <c r="H8">
-        <v>0.6487421075682434</v>
+        <v>0.5704478881999708</v>
       </c>
       <c r="I8">
-        <v>0.6487421075682434</v>
+        <v>0.5734178967854542</v>
       </c>
       <c r="J8">
-        <v>0.6487421075682434</v>
+        <v>0.5801835351753383</v>
       </c>
       <c r="K8">
-        <v>0.6487421075682434</v>
+        <v>0.5859351985929006</v>
       </c>
       <c r="L8">
-        <v>0.6897565115385734</v>
+        <v>0.6294792121235476</v>
       </c>
       <c r="M8">
-        <v>0.6897565115385734</v>
+        <v>0.6385143756263673</v>
       </c>
       <c r="N8">
-        <v>0.7186731018087366</v>
+        <v>0.6719369865238765</v>
       </c>
       <c r="O8">
-        <v>0.7186731018087366</v>
+        <v>0.6719369865238765</v>
       </c>
       <c r="P8">
-        <v>0.8823025343825346</v>
+        <v>0.8180645001916005</v>
       </c>
       <c r="Q8">
-        <v>0.8950295089044635</v>
+        <v>0.8379423811465907</v>
       </c>
       <c r="R8">
-        <v>0.8950295089044635</v>
+        <v>0.8379423811465907</v>
       </c>
       <c r="S8">
-        <v>0.8950295089044635</v>
+        <v>0.8379423811465907</v>
       </c>
       <c r="T8">
-        <v>0.8950295089044635</v>
+        <v>0.8395978989956694</v>
       </c>
       <c r="U8">
-        <v>0.8950295089044635</v>
+        <v>0.8395978989956694</v>
       </c>
       <c r="V8">
-        <v>0.8950295089044635</v>
+        <v>0.8478936162914646</v>
       </c>
       <c r="W8">
-        <v>0.900550822205631</v>
+        <v>0.8617430196834133</v>
       </c>
       <c r="X8">
-        <v>0.900550822205631</v>
+        <v>0.8617430196834133</v>
       </c>
       <c r="Y8">
-        <v>0.900550822205631</v>
+        <v>0.8617430196834133</v>
       </c>
       <c r="Z8">
-        <v>0.900550822205631</v>
+        <v>0.8627597333137209</v>
       </c>
       <c r="AA8">
-        <v>0.900550822205631</v>
+        <v>0.8644555280112235</v>
       </c>
       <c r="AB8">
-        <v>0.9374535698297256</v>
+        <v>0.9045596035166411</v>
       </c>
       <c r="AC8">
-        <v>0.9374535698297256</v>
+        <v>0.9045596035166411</v>
       </c>
       <c r="AD8">
-        <v>0.9374535698297256</v>
+        <v>0.907368685103782</v>
       </c>
       <c r="AE8">
-        <v>0.9530126023906175</v>
+        <v>0.9296159528259337</v>
       </c>
       <c r="AF8">
-        <v>0.9530126023906175</v>
+        <v>0.934522914450854</v>
       </c>
       <c r="AG8">
-        <v>0.9903905986771495</v>
+        <v>0.9750245975887418</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999999</v>
+        <v>0.9922942210214892</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999999</v>
+        <v>0.9922942210214892</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.351681390018422</v>
+        <v>0.2948229029799818</v>
       </c>
       <c r="E9">
-        <v>0.4311627159863752</v>
+        <v>0.3690892808464965</v>
       </c>
       <c r="F9">
-        <v>0.624092682389862</v>
+        <v>0.5352800967200102</v>
       </c>
       <c r="G9">
-        <v>0.624092682389862</v>
+        <v>0.535514108668134</v>
       </c>
       <c r="H9">
-        <v>0.624092682389862</v>
+        <v>0.5372535018071407</v>
       </c>
       <c r="I9">
-        <v>0.624092682389862</v>
+        <v>0.5425252988750315</v>
       </c>
       <c r="J9">
-        <v>0.624092682389862</v>
+        <v>0.5522461372659785</v>
       </c>
       <c r="K9">
-        <v>0.6632019206253301</v>
+        <v>0.5938000783705313</v>
       </c>
       <c r="L9">
-        <v>0.6835378623658234</v>
+        <v>0.6201425129888519</v>
       </c>
       <c r="M9">
-        <v>0.7033881150438342</v>
+        <v>0.6460914065832922</v>
       </c>
       <c r="N9">
-        <v>0.7033881150438342</v>
+        <v>0.6476694125065799</v>
       </c>
       <c r="O9">
-        <v>0.8537989388250748</v>
+        <v>0.7794080897287677</v>
       </c>
       <c r="P9">
-        <v>0.886898954804866</v>
+        <v>0.8160929166985755</v>
       </c>
       <c r="Q9">
-        <v>0.886898954804866</v>
+        <v>0.8160929166985755</v>
       </c>
       <c r="R9">
-        <v>0.886898954804866</v>
+        <v>0.8160929166985755</v>
       </c>
       <c r="S9">
-        <v>0.886898954804866</v>
+        <v>0.8160929166985755</v>
       </c>
       <c r="T9">
-        <v>0.886898954804866</v>
+        <v>0.8166530504798363</v>
       </c>
       <c r="U9">
-        <v>0.8923097531154514</v>
+        <v>0.8309020354393419</v>
       </c>
       <c r="V9">
-        <v>0.8993756239460843</v>
+        <v>0.8464920819636413</v>
       </c>
       <c r="W9">
-        <v>0.8993756239460843</v>
+        <v>0.8481023916576227</v>
       </c>
       <c r="X9">
-        <v>0.8993756239460843</v>
+        <v>0.8487824277492534</v>
       </c>
       <c r="Y9">
-        <v>0.8993756239460843</v>
+        <v>0.8506298405648323</v>
       </c>
       <c r="Z9">
-        <v>0.8993756239460843</v>
+        <v>0.8562380119722333</v>
       </c>
       <c r="AA9">
-        <v>0.9371115099289411</v>
+        <v>0.8966791620065512</v>
       </c>
       <c r="AB9">
-        <v>0.9371115099289411</v>
+        <v>0.8974507218361989</v>
       </c>
       <c r="AC9">
-        <v>0.9371115099289411</v>
+        <v>0.9034074420804025</v>
       </c>
       <c r="AD9">
-        <v>0.9619164267749686</v>
+        <v>0.9333709692342211</v>
       </c>
       <c r="AE9">
-        <v>0.9644869168659974</v>
+        <v>0.9453185274349128</v>
       </c>
       <c r="AF9">
-        <v>0.9906807625154156</v>
+        <v>0.9764074669268016</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9938233569560825</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9938233569560825</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3380277035844323</v>
+        <v>0.2823592909702591</v>
       </c>
       <c r="E10">
-        <v>0.4195013896586546</v>
+        <v>0.3578763989014759</v>
       </c>
       <c r="F10">
-        <v>0.6562880268323724</v>
+        <v>0.5586118533291657</v>
       </c>
       <c r="G10">
-        <v>0.6562880268323724</v>
+        <v>0.5586118533291657</v>
       </c>
       <c r="H10">
-        <v>0.6562880268323724</v>
+        <v>0.5594561923403424</v>
       </c>
       <c r="I10">
-        <v>0.6562880268323724</v>
+        <v>0.5645197419339967</v>
       </c>
       <c r="J10">
-        <v>0.6650481268885271</v>
+        <v>0.5814127947265108</v>
       </c>
       <c r="K10">
-        <v>0.689811053139222</v>
+        <v>0.6112078458466921</v>
       </c>
       <c r="L10">
-        <v>0.7154370315162176</v>
+        <v>0.641698717627228</v>
       </c>
       <c r="M10">
-        <v>0.734874954731447</v>
+        <v>0.6672005783182189</v>
       </c>
       <c r="N10">
-        <v>0.734874954731447</v>
+        <v>0.6742866331474588</v>
       </c>
       <c r="O10">
-        <v>0.8658797220143492</v>
+        <v>0.7897373077595393</v>
       </c>
       <c r="P10">
-        <v>0.8933047828395435</v>
+        <v>0.8216786582527612</v>
       </c>
       <c r="Q10">
-        <v>0.8933047828395435</v>
+        <v>0.8216786582527612</v>
       </c>
       <c r="R10">
-        <v>0.8933047828395435</v>
+        <v>0.8216786582527612</v>
       </c>
       <c r="S10">
-        <v>0.8933047828395435</v>
+        <v>0.8216786582527612</v>
       </c>
       <c r="T10">
-        <v>0.8933047828395435</v>
+        <v>0.823914670485235</v>
       </c>
       <c r="U10">
-        <v>0.8982588146947644</v>
+        <v>0.8377391474545492</v>
       </c>
       <c r="V10">
-        <v>0.9034187156591486</v>
+        <v>0.8517296027873008</v>
       </c>
       <c r="W10">
-        <v>0.9034187156591486</v>
+        <v>0.8520052743678078</v>
       </c>
       <c r="X10">
-        <v>0.9034187156591486</v>
+        <v>0.8520052743678078</v>
       </c>
       <c r="Y10">
-        <v>0.9034187156591486</v>
+        <v>0.8552771810326194</v>
       </c>
       <c r="Z10">
-        <v>0.9034187156591486</v>
+        <v>0.8582030643995597</v>
       </c>
       <c r="AA10">
-        <v>0.9357086852431036</v>
+        <v>0.8940666623699928</v>
       </c>
       <c r="AB10">
-        <v>0.9357086852431036</v>
+        <v>0.8940666623699928</v>
       </c>
       <c r="AC10">
-        <v>0.9380158086157477</v>
+        <v>0.9057571157361921</v>
       </c>
       <c r="AD10">
-        <v>0.959420710099566</v>
+        <v>0.9328448182043404</v>
       </c>
       <c r="AE10">
-        <v>0.9600393347442463</v>
+        <v>0.9431739490454042</v>
       </c>
       <c r="AF10">
-        <v>0.9886428546958796</v>
+        <v>0.9760654115684454</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999997</v>
+        <v>0.9950522866045303</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999997</v>
+        <v>0.9950522866045303</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,97 +2902,97 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3477066664273917</v>
+        <v>0.2898498454702409</v>
       </c>
       <c r="E11">
-        <v>0.4458280042913378</v>
+        <v>0.3787507061525072</v>
       </c>
       <c r="F11">
-        <v>0.6292996673843427</v>
+        <v>0.5363697936024295</v>
       </c>
       <c r="G11">
-        <v>0.6292996673843427</v>
+        <v>0.5390366905931371</v>
       </c>
       <c r="H11">
-        <v>0.6292996673843427</v>
+        <v>0.5392173115830853</v>
       </c>
       <c r="I11">
-        <v>0.6292996673843427</v>
+        <v>0.5430057380282569</v>
       </c>
       <c r="J11">
-        <v>0.6353951563763272</v>
+        <v>0.5578136982523481</v>
       </c>
       <c r="K11">
-        <v>0.6735844883206343</v>
+        <v>0.5984614191560199</v>
       </c>
       <c r="L11">
-        <v>0.6930384368718739</v>
+        <v>0.6240246946152418</v>
       </c>
       <c r="M11">
-        <v>0.7211199067010209</v>
+        <v>0.6565342583519472</v>
       </c>
       <c r="N11">
-        <v>0.7211199067010209</v>
+        <v>0.6583581648000945</v>
       </c>
       <c r="O11">
-        <v>0.8651090221185921</v>
+        <v>0.7841886133989782</v>
       </c>
       <c r="P11">
-        <v>0.8794633427598743</v>
+        <v>0.8056460183040266</v>
       </c>
       <c r="Q11">
-        <v>0.8794633427598743</v>
+        <v>0.8063544416521377</v>
       </c>
       <c r="R11">
-        <v>0.8794633427598743</v>
+        <v>0.8063544416521377</v>
       </c>
       <c r="S11">
-        <v>0.8794633427598743</v>
+        <v>0.8063544416521377</v>
       </c>
       <c r="T11">
-        <v>0.8794633427598743</v>
+        <v>0.8063544416521377</v>
       </c>
       <c r="U11">
-        <v>0.8904467337244488</v>
+        <v>0.8250978052302183</v>
       </c>
       <c r="V11">
-        <v>0.8975665684079103</v>
+        <v>0.8407304983340784</v>
       </c>
       <c r="W11">
-        <v>0.8975665684079103</v>
+        <v>0.8430395697682913</v>
       </c>
       <c r="X11">
-        <v>0.8975665684079103</v>
+        <v>0.8430395697682913</v>
       </c>
       <c r="Y11">
-        <v>0.8975665684079103</v>
+        <v>0.8444569561575825</v>
       </c>
       <c r="Z11">
-        <v>0.8983312619493716</v>
+        <v>0.8549729255821318</v>
       </c>
       <c r="AA11">
-        <v>0.9362049371429524</v>
+        <v>0.8953665013244473</v>
       </c>
       <c r="AB11">
-        <v>0.9362049371429524</v>
+        <v>0.8960037255739698</v>
       </c>
       <c r="AC11">
-        <v>0.9362049371429524</v>
+        <v>0.9022714305836264</v>
       </c>
       <c r="AD11">
-        <v>0.964837716913662</v>
+        <v>0.935224871264935</v>
       </c>
       <c r="AE11">
-        <v>0.964837716913662</v>
+        <v>0.9419888698913544</v>
       </c>
       <c r="AF11">
-        <v>0.998439203631403</v>
+        <v>0.9789427725487808</v>
       </c>
       <c r="AG11">
-        <v>0.9992372970165432</v>
+        <v>0.9894856332362019</v>
       </c>
       <c r="AH11">
-        <v>0.9992372970165432</v>
+        <v>0.9894856332362019</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6189759201403591</v>
+        <v>0.5283511907254766</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5656386447306766</v>
+        <v>0.5167887497027208</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7063919338685862</v>
+        <v>0.6028643116356288</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7375528362879883</v>
+        <v>0.6345674291389879</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3230,16 +3230,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5457098796379127</v>
+        <v>0.6351340689738111</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6424945450274524</v>
+        <v>0.5574943825574212</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3312,16 +3312,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5335295768534742</v>
+        <v>0.5704478881999708</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>63</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.624092682389862</v>
+        <v>0.5352800967200102</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6562880268323724</v>
+        <v>0.5586118533291657</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6292996673843427</v>
+        <v>0.5363697936024295</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3530,16 +3530,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7410848598483128</v>
+        <v>0.7063503161086999</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -3571,16 +3571,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7043765642643334</v>
+      </c>
+      <c r="G3">
         <v>6</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7401908915175625</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -3612,16 +3612,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7063919338685862</v>
+        <v>0.7671631325436177</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -3653,16 +3653,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7375528362879883</v>
+        <v>0.7221558350514325</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -3694,16 +3694,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.7205298918025196</v>
+      </c>
+      <c r="G6">
         <v>6</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7114936620292041</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -3735,16 +3735,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7227623119961822</v>
+        <v>0.7954987678150272</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>63</v>
@@ -3776,16 +3776,16 @@
         <v>2</v>
       </c>
       <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.8180645001916005</v>
+      </c>
+      <c r="G8">
         <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7186731018087366</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
       </c>
       <c r="H8">
         <v>63</v>
@@ -3817,16 +3817,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7033881150438342</v>
+        <v>0.7794080897287677</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>63</v>
@@ -3858,16 +3858,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7154370315162176</v>
+        <v>0.7897373077595393</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>63</v>
@@ -3899,16 +3899,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7211199067010209</v>
+        <v>0.7841886133989782</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>63</v>
@@ -3994,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8428309142500058</v>
+        <v>0.8244415741253136</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -4035,16 +4035,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8206384082757682</v>
+        <v>0.8219400378842354</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -4076,16 +4076,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8404173225029611</v>
+        <v>0.8014948695405779</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -4117,16 +4117,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8216713910193975</v>
+        <v>0.8308916919216854</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -4158,16 +4158,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8093468734795141</v>
+      </c>
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8550899146982031</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -4199,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.8344908556211361</v>
+      </c>
+      <c r="G7">
         <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8658522855886325</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
       </c>
       <c r="H7">
         <v>63</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8823025343825346</v>
+        <v>0.8180645001916005</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -4281,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.8160929166985755</v>
+      </c>
+      <c r="G9">
         <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8537989388250748</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
       </c>
       <c r="H9">
         <v>63</v>
@@ -4322,16 +4322,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8216786582527612</v>
+      </c>
+      <c r="G10">
         <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8658797220143492</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
       </c>
       <c r="H10">
         <v>63</v>
@@ -4363,16 +4363,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8056460183040266</v>
+      </c>
+      <c r="G11">
         <v>14</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8651090221185921</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
       </c>
       <c r="H11">
         <v>63</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9166898641298403</v>
+      </c>
+      <c r="G2">
         <v>26</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9276221480863359</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -4499,16 +4499,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9120610466824398</v>
+      </c>
+      <c r="G3">
         <v>26</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9120871831958848</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -4540,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9248133525077032</v>
+        <v>0.9188074411903182</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -4581,16 +4581,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9158321600470107</v>
+        <v>0.9258201336803353</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -4622,16 +4622,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9146214687113322</v>
+        <v>0.9181115558954166</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9031313604190804</v>
+        <v>0.9102041902897428</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>63</v>
@@ -4704,16 +4704,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.900550822205631</v>
+        <v>0.9045596035166411</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>63</v>
@@ -4745,16 +4745,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9371115099289411</v>
+        <v>0.9034074420804025</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>63</v>
@@ -4786,16 +4786,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9034187156591486</v>
+        <v>0.9057571157361921</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <v>63</v>
@@ -4827,16 +4827,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9362049371429524</v>
+        <v>0.9022714305836264</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>63</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/63_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/63_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>100%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,46 +689,46 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05017680814737234</v>
+        <v>0.03656784248924663</v>
       </c>
       <c r="E2">
-        <v>0.1082723864823515</v>
+        <v>0.1415634390078012</v>
       </c>
       <c r="F2">
-        <v>0.3699019960957527</v>
+        <v>0.6144041906719606</v>
       </c>
       <c r="G2">
-        <v>0.1081519448695106</v>
+        <v>0.1413457660049958</v>
       </c>
       <c r="H2">
-        <v>0.02332708763438794</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0211640766566913</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01487602078628841</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01047999543634506</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002964467193159885</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01034317882207327</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.01557202288820941</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.05359444955363492</v>
+        <v>0.04274451390592478</v>
       </c>
       <c r="Q2">
-        <v>0.002248413143299467</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -737,52 +737,52 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.003560475412067254</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.001875066271872935</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.03060120520614057</v>
+        <v>0.00118903799273508</v>
       </c>
       <c r="X2">
-        <v>0.004608241575050736</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.02580756579112831</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0004891381524582665</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0408394535669857</v>
+        <v>0.01969252870167964</v>
       </c>
       <c r="AB2">
-        <v>0.02050389091890383</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.02600237456780341</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.003256031838569544</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.03132252981469834</v>
+        <v>0.002492681225656232</v>
       </c>
       <c r="AF2">
-        <v>0.003581205489489995</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01900785039845816</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0001401437611398927</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,55 +799,55 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05175139136394388</v>
+        <v>0.03817502781330996</v>
       </c>
       <c r="E3">
-        <v>0.1465610742713361</v>
+        <v>0.1996956706246402</v>
       </c>
       <c r="F3">
-        <v>0.3184762840674409</v>
+        <v>0.4925756206866455</v>
       </c>
       <c r="G3">
-        <v>0.1600671505784478</v>
+        <v>0.2227050306402667</v>
       </c>
       <c r="H3">
-        <v>0.02752066398316465</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02712029259609003</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01490222783062431</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.727696645832396E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.00481765155511651</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001618536354248666</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.03234529129772134</v>
+        <v>0.005114208907091749</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0007727183620115234</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003500120040996738</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -856,37 +856,37 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.03386604133545831</v>
+        <v>0.007705004658307991</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.02979115453106879</v>
+        <v>0.0007629042752564437</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.03987431074026889</v>
+        <v>0.01794087410422287</v>
       </c>
       <c r="AB3">
-        <v>0.02045554352686664</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.02668296389298739</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03833922656934974</v>
+        <v>0.0153256582902585</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.02291676285522321</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -909,43 +909,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2487166344860242</v>
+        <v>0.3576379301832661</v>
       </c>
       <c r="E4">
-        <v>0.05232140233439907</v>
+        <v>0.03652030472894539</v>
       </c>
       <c r="F4">
-        <v>0.3018262748152056</v>
+        <v>0.4444752805832647</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01570867160994503</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0006381745357080806</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.005479634424509138</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.512106561001899E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03362471196557974</v>
+        <v>0.005950128715432373</v>
       </c>
       <c r="M4">
-        <v>0.01048946368881553</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.01309538912290278</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.08523765449491844</v>
+        <v>0.09034029117587283</v>
       </c>
       <c r="P4">
-        <v>0.03266018464973904</v>
+        <v>0.004373070464295843</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -954,55 +954,55 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001671552347221146</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001624500233130373</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0555844507598041</v>
+        <v>0.04185557865911678</v>
       </c>
       <c r="W4">
-        <v>0.004985494344246223</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.006717145428901239</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.005687868822876847</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001200431857408819</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.04151268020337273</v>
+        <v>0.01884741548980599</v>
       </c>
       <c r="AB4">
-        <v>0.0006485831724497937</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01418497343865776</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02046272105352536</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.007207365359677977</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.02103390339767333</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01321484996365192</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001084850014122488</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00335531240992345</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,43 +1019,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1514812774246559</v>
+        <v>0.2026187830691445</v>
       </c>
       <c r="E5">
-        <v>0.01547306174588269</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4676130899684494</v>
+        <v>0.7289087177855267</v>
       </c>
       <c r="G5">
-        <v>0.04435837279753986</v>
+        <v>0.02428270854002972</v>
       </c>
       <c r="H5">
-        <v>0.04323003311490484</v>
+        <v>0.02240427114667302</v>
       </c>
       <c r="I5">
-        <v>0.01258925573117524</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02444063971059614</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002952092449139024</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.00338373085623305</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.002576546554677725</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.02909531449836013</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.03369827707007152</v>
+        <v>0.006535993841070083</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,55 +1064,55 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0004854540717733425</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0008810192947395699</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01039130529528836</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02235002576479464</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02188831641570795</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.03893232091634596</v>
+        <v>0.01524952561755607</v>
       </c>
       <c r="AB5">
-        <v>0.01246527274095164</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02455038193096628</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002025359830035705</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01732614415440702</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.005516734675920325</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.008572792901403959</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003723180085979867</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1129,46 +1129,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03692094285154861</v>
+        <v>0.01246818953179735</v>
       </c>
       <c r="E6">
-        <v>0.1533383105521741</v>
+        <v>0.2149196097940752</v>
       </c>
       <c r="F6">
-        <v>0.296264170454175</v>
+        <v>0.4634696663782181</v>
       </c>
       <c r="G6">
-        <v>0.1486106451159134</v>
+        <v>0.206698133900915</v>
       </c>
       <c r="H6">
-        <v>0.04846097120546836</v>
+        <v>0.03253645920892952</v>
       </c>
       <c r="I6">
-        <v>0.03693485162324016</v>
+        <v>0.01249237707905659</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06276741518709024</v>
+        <v>0.05741556410700827</v>
       </c>
       <c r="L6">
-        <v>0.001385626154445576</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.02466394033545865</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.001545237052202121</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.02605105920662538</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0007975688675765207</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1177,46 +1177,46 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0003753337145926218</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.008327117438859003</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.02671164773848177</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0003358953017821956</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.01830642912867198</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02631439396711076</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0245019722008388</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02245081062342166</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01717262289002352</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01776303839029953</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1239,43 +1239,43 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2752947268233326</v>
+        <v>0.4265091208079367</v>
       </c>
       <c r="E7">
-        <v>0.04969189916685858</v>
+        <v>0.0350586741332148</v>
       </c>
       <c r="F7">
-        <v>0.2325077565672301</v>
+        <v>0.3522681248390694</v>
       </c>
       <c r="G7">
-        <v>0.006102645937532075</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.003004580205145837</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01807544582892836</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.03908719874999063</v>
+        <v>0.01665813031841991</v>
       </c>
       <c r="L7">
-        <v>0.03360665341762956</v>
+        <v>0.007148666537936837</v>
       </c>
       <c r="M7">
-        <v>0.03022858542298224</v>
+        <v>0.001287276239160009</v>
       </c>
       <c r="N7">
-        <v>0.003252903053560306</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1046463726418368</v>
+        <v>0.1304118814135362</v>
       </c>
       <c r="P7">
-        <v>0.038992087806109</v>
+        <v>0.01649310037685016</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1284,55 +1284,55 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.0002621594514345234</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.01312345073186875</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.009842774401284376</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.007006808330375908</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.0001984421647047931</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.009508385734699396</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.02471753177395566</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.0110537820802834</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.02562609490410937</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.005219285818022091</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.03765035907095722</v>
+        <v>0.01416502533387584</v>
       </c>
       <c r="AG7">
-        <v>0.01258419865571647</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.008715871261451935</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1352,43 +1352,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3190832548477574</v>
+        <v>0.4549775032917862</v>
       </c>
       <c r="F8">
-        <v>0.1457441873340423</v>
+        <v>0.1823656679893128</v>
       </c>
       <c r="G8">
-        <v>0.1056204460181712</v>
+        <v>0.1192627165530715</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.00297000858548336</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.006765638389884093</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.005751663417562264</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04354401353064704</v>
+        <v>0.02163457979091285</v>
       </c>
       <c r="M8">
-        <v>0.009035163502819668</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.03342261089750923</v>
+        <v>0.00571656322816268</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.146127513667724</v>
+        <v>0.1829685285956587</v>
       </c>
       <c r="Q8">
-        <v>0.01987788095499026</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.001655517849078719</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.008295717295795308</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.01384940339194864</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1415,37 +1415,37 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.00101671363030766</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.001695794697502626</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04010407550541764</v>
+        <v>0.01622455981194675</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.002809081587140852</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.02224726772215166</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.00490696162492031</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.04050168313788785</v>
+        <v>0.01684988073914856</v>
       </c>
       <c r="AH8">
-        <v>0.01726962343274741</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.007705778978510939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1459,43 +1459,43 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2948229029799818</v>
+        <v>0.4590253631978918</v>
       </c>
       <c r="E9">
-        <v>0.07426637786651466</v>
+        <v>0.07676211753934534</v>
       </c>
       <c r="F9">
-        <v>0.1661908158735137</v>
+        <v>0.2360833346732097</v>
       </c>
       <c r="G9">
-        <v>0.0002340119481237643</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001739393139006768</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.005271797067890838</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.009720838390946961</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.04155394110455276</v>
+        <v>0.02006571173772907</v>
       </c>
       <c r="L9">
-        <v>0.02634243461832067</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.02594889359444029</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.001578005923287686</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1317386772221878</v>
+        <v>0.1763717195488836</v>
       </c>
       <c r="P9">
-        <v>0.03668482696980777</v>
+        <v>0.01162668064730011</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1507,52 +1507,52 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.0005601337812606856</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.01424898495950563</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.01559004652429943</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.001610309693981349</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.0006800360916307055</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.001847412815578854</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.005608171407400984</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.04044115003431796</v>
+        <v>0.01813704911471684</v>
       </c>
       <c r="AB9">
-        <v>0.0007715598296477449</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.005956720244203569</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.02996352715381867</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.01194755820069171</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.03108893949188874</v>
+        <v>0.001928023540924015</v>
       </c>
       <c r="AG9">
-        <v>0.01741589002928093</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.006176643043917456</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,43 +1569,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2823592909702591</v>
+        <v>0.4462774857922419</v>
       </c>
       <c r="E10">
-        <v>0.07551710793121685</v>
+        <v>0.08055037680120902</v>
       </c>
       <c r="F10">
-        <v>0.2007354544276898</v>
+        <v>0.301954653162711</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0008443390111766261</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.005063549593654328</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01689305279251411</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02979505112018136</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03049087178053584</v>
+        <v>0.0009374326029366862</v>
       </c>
       <c r="M10">
-        <v>0.02550186069099094</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.007086054829239921</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1154506746120804</v>
+        <v>0.1511587395602511</v>
       </c>
       <c r="P10">
-        <v>0.03194135049322186</v>
+        <v>0.003502090248923543</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1617,52 +1617,52 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.002236012232473812</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.01382447696931424</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.01399045533275152</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0002756715805069763</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.003271906664811565</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.002925883366940343</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.03586359797043309</v>
+        <v>0.01043719511733944</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.01169045336619939</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.02708770246814828</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.01032913084106376</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.0328914625230412</v>
+        <v>0.00518202671438736</v>
       </c>
       <c r="AG10">
-        <v>0.01898687503608485</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.004947713395469751</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,46 +1679,46 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2898498454702409</v>
+        <v>0.451291975775574</v>
       </c>
       <c r="E11">
-        <v>0.08890086068226627</v>
+        <v>0.1023217957986866</v>
       </c>
       <c r="F11">
-        <v>0.1576190874499224</v>
+        <v>0.2216586114989696</v>
       </c>
       <c r="G11">
-        <v>0.002666896990707596</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0001806209899481499</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003788426445171586</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01480796022409119</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.04064772090367188</v>
+        <v>0.01852487146610999</v>
       </c>
       <c r="L11">
-        <v>0.02556327545922192</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.03250956373670546</v>
+        <v>0.004392059726687764</v>
       </c>
       <c r="N11">
-        <v>0.001823906448147246</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.1258304485988837</v>
+        <v>0.1664541175187089</v>
       </c>
       <c r="P11">
-        <v>0.02145740490504845</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.000708423348111058</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1730,49 +1730,49 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.01874336357808054</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.01563269310386023</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.002309071434212918</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.001417386389291184</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.01051596942454927</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.04039357574231547</v>
+        <v>0.01808352023065897</v>
       </c>
       <c r="AB11">
-        <v>0.0006372242495225321</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.006267705009656521</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.03295344068130872</v>
+        <v>0.005162901228620339</v>
       </c>
       <c r="AE11">
-        <v>0.006763998626419372</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.03695390265742642</v>
+        <v>0.01211014675598382</v>
       </c>
       <c r="AG11">
-        <v>0.01054286068742101</v>
+        <v>0</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.01051436676379817</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05017680814737234</v>
+        <v>0.03656784248924663</v>
       </c>
       <c r="E2">
-        <v>0.1584491946297239</v>
+        <v>0.1781312814970478</v>
       </c>
       <c r="F2">
-        <v>0.5283511907254766</v>
+        <v>0.7925354721690084</v>
       </c>
       <c r="G2">
-        <v>0.6365031355949873</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="H2">
-        <v>0.6598302232293752</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="I2">
-        <v>0.6809942998860665</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="J2">
-        <v>0.6809942998860665</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="K2">
-        <v>0.6958703206723549</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="L2">
-        <v>0.7063503161086999</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="M2">
-        <v>0.7066467628280159</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="N2">
-        <v>0.7169899416500891</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="O2">
-        <v>0.7325619645382985</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="P2">
-        <v>0.7861564140919334</v>
+        <v>0.9766257520799291</v>
       </c>
       <c r="Q2">
-        <v>0.7884048272352329</v>
+        <v>0.9766257520799291</v>
       </c>
       <c r="R2">
-        <v>0.7884048272352329</v>
+        <v>0.9766257520799291</v>
       </c>
       <c r="S2">
-        <v>0.7884048272352329</v>
+        <v>0.9766257520799291</v>
       </c>
       <c r="T2">
-        <v>0.7919653026473001</v>
+        <v>0.9766257520799291</v>
       </c>
       <c r="U2">
-        <v>0.7919653026473001</v>
+        <v>0.9766257520799291</v>
       </c>
       <c r="V2">
-        <v>0.7938403689191731</v>
+        <v>0.9766257520799291</v>
       </c>
       <c r="W2">
-        <v>0.8244415741253136</v>
+        <v>0.9778147900726641</v>
       </c>
       <c r="X2">
-        <v>0.8290498157003643</v>
+        <v>0.9778147900726641</v>
       </c>
       <c r="Y2">
-        <v>0.8548573814914926</v>
+        <v>0.9778147900726641</v>
       </c>
       <c r="Z2">
-        <v>0.8553465196439508</v>
+        <v>0.9778147900726641</v>
       </c>
       <c r="AA2">
-        <v>0.8961859732109365</v>
+        <v>0.9975073187743437</v>
       </c>
       <c r="AB2">
-        <v>0.9166898641298403</v>
+        <v>0.9975073187743437</v>
       </c>
       <c r="AC2">
-        <v>0.9426922386976437</v>
+        <v>0.9975073187743437</v>
       </c>
       <c r="AD2">
-        <v>0.9459482705362133</v>
+        <v>0.9975073187743437</v>
       </c>
       <c r="AE2">
-        <v>0.9772708003509116</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9808520058404017</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9998598562388599</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9998598562388599</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05175139136394388</v>
+        <v>0.03817502781330996</v>
       </c>
       <c r="E3">
-        <v>0.1983124656352799</v>
+        <v>0.2378706984379502</v>
       </c>
       <c r="F3">
-        <v>0.5167887497027208</v>
+        <v>0.7304463191245956</v>
       </c>
       <c r="G3">
-        <v>0.6768559002811687</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="H3">
-        <v>0.7043765642643334</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="I3">
-        <v>0.7314968568604234</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="J3">
-        <v>0.7314968568604234</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="K3">
-        <v>0.7463990846910478</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="L3">
-        <v>0.7464763616575061</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="M3">
-        <v>0.7512940132126226</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="N3">
-        <v>0.7512940132126226</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="O3">
-        <v>0.7514558668480474</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="P3">
-        <v>0.7838011581457688</v>
+        <v>0.9582655586719541</v>
       </c>
       <c r="Q3">
-        <v>0.7838011581457688</v>
+        <v>0.9582655586719541</v>
       </c>
       <c r="R3">
-        <v>0.7845738765077803</v>
+        <v>0.9582655586719541</v>
       </c>
       <c r="S3">
-        <v>0.7845738765077803</v>
+        <v>0.9582655586719541</v>
       </c>
       <c r="T3">
-        <v>0.7880739965487771</v>
+        <v>0.9582655586719541</v>
       </c>
       <c r="U3">
-        <v>0.7880739965487771</v>
+        <v>0.9582655586719541</v>
       </c>
       <c r="V3">
-        <v>0.7880739965487771</v>
+        <v>0.9582655586719541</v>
       </c>
       <c r="W3">
-        <v>0.8219400378842354</v>
+        <v>0.9659705633302621</v>
       </c>
       <c r="X3">
-        <v>0.8219400378842354</v>
+        <v>0.9659705633302621</v>
       </c>
       <c r="Y3">
-        <v>0.8517311924153043</v>
+        <v>0.9667334676055186</v>
       </c>
       <c r="Z3">
-        <v>0.8517311924153043</v>
+        <v>0.9667334676055186</v>
       </c>
       <c r="AA3">
-        <v>0.8916055031555732</v>
+        <v>0.9846743417097414</v>
       </c>
       <c r="AB3">
-        <v>0.9120610466824398</v>
+        <v>0.9846743417097414</v>
       </c>
       <c r="AC3">
-        <v>0.9387440105754272</v>
+        <v>0.9846743417097414</v>
       </c>
       <c r="AD3">
-        <v>0.9387440105754272</v>
+        <v>0.9846743417097414</v>
       </c>
       <c r="AE3">
-        <v>0.977083237144777</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.977083237144777</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2487166344860242</v>
+        <v>0.3576379301832661</v>
       </c>
       <c r="E4">
-        <v>0.3010380368204232</v>
+        <v>0.3941582349122115</v>
       </c>
       <c r="F4">
-        <v>0.6028643116356288</v>
+        <v>0.8386335154954762</v>
       </c>
       <c r="G4">
-        <v>0.6028643116356288</v>
+        <v>0.8386335154954762</v>
       </c>
       <c r="H4">
-        <v>0.6185729832455739</v>
+        <v>0.8386335154954762</v>
       </c>
       <c r="I4">
-        <v>0.619211157781282</v>
+        <v>0.8386335154954762</v>
       </c>
       <c r="J4">
-        <v>0.6246907922057912</v>
+        <v>0.8386335154954762</v>
       </c>
       <c r="K4">
-        <v>0.6247159132714012</v>
+        <v>0.8386335154954762</v>
       </c>
       <c r="L4">
-        <v>0.6583406252369809</v>
+        <v>0.8445836442109085</v>
       </c>
       <c r="M4">
-        <v>0.6688300889257964</v>
+        <v>0.8445836442109085</v>
       </c>
       <c r="N4">
-        <v>0.6819254780486992</v>
+        <v>0.8445836442109085</v>
       </c>
       <c r="O4">
-        <v>0.7671631325436177</v>
+        <v>0.9349239353867813</v>
       </c>
       <c r="P4">
-        <v>0.7998233171933568</v>
+        <v>0.9392970058510771</v>
       </c>
       <c r="Q4">
-        <v>0.7998233171933568</v>
+        <v>0.9392970058510771</v>
       </c>
       <c r="R4">
-        <v>0.7998233171933568</v>
+        <v>0.9392970058510771</v>
       </c>
       <c r="S4">
-        <v>0.8014948695405779</v>
+        <v>0.9392970058510771</v>
       </c>
       <c r="T4">
-        <v>0.8031193697737082</v>
+        <v>0.9392970058510771</v>
       </c>
       <c r="U4">
-        <v>0.8031193697737082</v>
+        <v>0.9392970058510771</v>
       </c>
       <c r="V4">
-        <v>0.8587038205335124</v>
+        <v>0.9811525845101939</v>
       </c>
       <c r="W4">
-        <v>0.8636893148777586</v>
+        <v>0.9811525845101939</v>
       </c>
       <c r="X4">
-        <v>0.8704064603066598</v>
+        <v>0.9811525845101939</v>
       </c>
       <c r="Y4">
-        <v>0.8760943291295367</v>
+        <v>0.9811525845101939</v>
       </c>
       <c r="Z4">
-        <v>0.8772947609869455</v>
+        <v>0.9811525845101939</v>
       </c>
       <c r="AA4">
-        <v>0.9188074411903182</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.919456024362768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.9336409978014257</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.954103718854951</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.9613110842146291</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.9823449876123024</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.9955598375759543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.9966446875900768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,97 +2242,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1514812774246559</v>
+        <v>0.2026187830691445</v>
       </c>
       <c r="E5">
-        <v>0.1669543391705385</v>
+        <v>0.2026187830691445</v>
       </c>
       <c r="F5">
-        <v>0.6345674291389879</v>
+        <v>0.9315275008546712</v>
       </c>
       <c r="G5">
-        <v>0.6789258019365277</v>
+        <v>0.9558102093947008</v>
       </c>
       <c r="H5">
-        <v>0.7221558350514325</v>
+        <v>0.9782144805413738</v>
       </c>
       <c r="I5">
-        <v>0.7347450907826077</v>
+        <v>0.9782144805413738</v>
       </c>
       <c r="J5">
-        <v>0.7347450907826077</v>
+        <v>0.9782144805413738</v>
       </c>
       <c r="K5">
-        <v>0.7591857304932039</v>
+        <v>0.9782144805413738</v>
       </c>
       <c r="L5">
-        <v>0.762137822942343</v>
+        <v>0.9782144805413738</v>
       </c>
       <c r="M5">
-        <v>0.765521553798576</v>
+        <v>0.9782144805413738</v>
       </c>
       <c r="N5">
-        <v>0.7680981003532538</v>
+        <v>0.9782144805413738</v>
       </c>
       <c r="O5">
-        <v>0.7971934148516139</v>
+        <v>0.9782144805413738</v>
       </c>
       <c r="P5">
-        <v>0.8308916919216854</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="Q5">
-        <v>0.8308916919216854</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="R5">
-        <v>0.8308916919216854</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="S5">
-        <v>0.8313771459934588</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="T5">
-        <v>0.8313771459934588</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="U5">
-        <v>0.8322581652881984</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="V5">
-        <v>0.8426494705834867</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="W5">
-        <v>0.8649994963482813</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="X5">
-        <v>0.8649994963482813</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="Y5">
-        <v>0.8868878127639893</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="Z5">
-        <v>0.8868878127639893</v>
+        <v>0.9847504743824439</v>
       </c>
       <c r="AA5">
-        <v>0.9258201336803353</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.938285406421287</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9628357883522533</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.964861148182289</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.982187292336696</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9877040270126163</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9962768199140203</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9962768199140203</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2352,91 +2352,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03692094285154861</v>
+        <v>0.01246818953179735</v>
       </c>
       <c r="E6">
-        <v>0.1902592534037227</v>
+        <v>0.2273877993258726</v>
       </c>
       <c r="F6">
-        <v>0.4865234238578977</v>
+        <v>0.6908574657040907</v>
       </c>
       <c r="G6">
-        <v>0.6351340689738111</v>
+        <v>0.8975555996050057</v>
       </c>
       <c r="H6">
-        <v>0.6835950401792794</v>
+        <v>0.9300920588139353</v>
       </c>
       <c r="I6">
-        <v>0.7205298918025196</v>
+        <v>0.9425844358929919</v>
       </c>
       <c r="J6">
-        <v>0.7205298918025196</v>
+        <v>0.9425844358929919</v>
       </c>
       <c r="K6">
-        <v>0.7832973069896099</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.7846829331440555</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8093468734795141</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.8108921105317162</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.8108921105317162</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.8369431697383416</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.8377407386059181</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.8377407386059181</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.8377407386059181</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.8381160723205108</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.8381160723205108</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.8464431897593698</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.8731548374978516</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.8734907327996339</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.8917971619283058</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.8917971619283058</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9181115558954166</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9426135280962554</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9650643387196771</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9650643387196771</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9822369616097006</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9822369616097006</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2752947268233326</v>
+        <v>0.4265091208079367</v>
       </c>
       <c r="E7">
-        <v>0.3249866259901911</v>
+        <v>0.4615677949411515</v>
       </c>
       <c r="F7">
-        <v>0.5574943825574212</v>
+        <v>0.813835919780221</v>
       </c>
       <c r="G7">
-        <v>0.5635970284949533</v>
+        <v>0.813835919780221</v>
       </c>
       <c r="H7">
-        <v>0.5635970284949533</v>
+        <v>0.813835919780221</v>
       </c>
       <c r="I7">
-        <v>0.5666016087000991</v>
+        <v>0.813835919780221</v>
       </c>
       <c r="J7">
-        <v>0.5846770545290275</v>
+        <v>0.813835919780221</v>
       </c>
       <c r="K7">
-        <v>0.6237642532790182</v>
+        <v>0.8304940500986409</v>
       </c>
       <c r="L7">
-        <v>0.6573709066966478</v>
+        <v>0.8376427166365777</v>
       </c>
       <c r="M7">
-        <v>0.68759949211963</v>
+        <v>0.8389299928757378</v>
       </c>
       <c r="N7">
-        <v>0.6908523951731903</v>
+        <v>0.8389299928757378</v>
       </c>
       <c r="O7">
-        <v>0.7954987678150272</v>
+        <v>0.969341874289274</v>
       </c>
       <c r="P7">
-        <v>0.8344908556211361</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="Q7">
-        <v>0.8344908556211361</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="R7">
-        <v>0.8344908556211361</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="S7">
-        <v>0.8347530150725706</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="T7">
-        <v>0.8347530150725706</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="U7">
-        <v>0.8478764658044393</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="V7">
-        <v>0.8577192402057237</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="W7">
-        <v>0.8647260485360996</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="X7">
-        <v>0.8647260485360996</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="Y7">
-        <v>0.8649244907008043</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="Z7">
-        <v>0.8744328764355037</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="AA7">
-        <v>0.8991504082094594</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="AB7">
-        <v>0.8991504082094594</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="AC7">
-        <v>0.9102041902897428</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="AD7">
-        <v>0.9358302851938521</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="AE7">
-        <v>0.9410495710118743</v>
+        <v>0.9858349746661241</v>
       </c>
       <c r="AF7">
-        <v>0.9786999300828315</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.991284128738548</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.991284128738548</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2575,97 +2575,97 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3190832548477574</v>
+        <v>0.4549775032917862</v>
       </c>
       <c r="F8">
-        <v>0.4648274421817997</v>
+        <v>0.637343171281099</v>
       </c>
       <c r="G8">
-        <v>0.5704478881999708</v>
+        <v>0.7566058878341705</v>
       </c>
       <c r="H8">
-        <v>0.5704478881999708</v>
+        <v>0.7566058878341705</v>
       </c>
       <c r="I8">
-        <v>0.5734178967854542</v>
+        <v>0.7566058878341705</v>
       </c>
       <c r="J8">
-        <v>0.5801835351753383</v>
+        <v>0.7566058878341705</v>
       </c>
       <c r="K8">
-        <v>0.5859351985929006</v>
+        <v>0.7566058878341705</v>
       </c>
       <c r="L8">
-        <v>0.6294792121235476</v>
+        <v>0.7782404676250834</v>
       </c>
       <c r="M8">
-        <v>0.6385143756263673</v>
+        <v>0.7782404676250834</v>
       </c>
       <c r="N8">
-        <v>0.6719369865238765</v>
+        <v>0.7839570308532461</v>
       </c>
       <c r="O8">
-        <v>0.6719369865238765</v>
+        <v>0.7839570308532461</v>
       </c>
       <c r="P8">
-        <v>0.8180645001916005</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="Q8">
-        <v>0.8379423811465907</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="R8">
-        <v>0.8379423811465907</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="S8">
-        <v>0.8379423811465907</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="T8">
-        <v>0.8395978989956694</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="U8">
-        <v>0.8395978989956694</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="V8">
-        <v>0.8478936162914646</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="W8">
-        <v>0.8617430196834133</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="X8">
-        <v>0.8617430196834133</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="Y8">
-        <v>0.8617430196834133</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="Z8">
-        <v>0.8627597333137209</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="AA8">
-        <v>0.8644555280112235</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="AB8">
-        <v>0.9045596035166411</v>
+        <v>0.9831501192608515</v>
       </c>
       <c r="AC8">
-        <v>0.9045596035166411</v>
+        <v>0.9831501192608515</v>
       </c>
       <c r="AD8">
-        <v>0.907368685103782</v>
+        <v>0.9831501192608515</v>
       </c>
       <c r="AE8">
-        <v>0.9296159528259337</v>
+        <v>0.9831501192608515</v>
       </c>
       <c r="AF8">
-        <v>0.934522914450854</v>
+        <v>0.9831501192608515</v>
       </c>
       <c r="AG8">
-        <v>0.9750245975887418</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9922942210214892</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9922942210214892</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2948229029799818</v>
+        <v>0.4590253631978918</v>
       </c>
       <c r="E9">
-        <v>0.3690892808464965</v>
+        <v>0.5357874807372371</v>
       </c>
       <c r="F9">
-        <v>0.5352800967200102</v>
+        <v>0.7718708154104468</v>
       </c>
       <c r="G9">
-        <v>0.535514108668134</v>
+        <v>0.7718708154104468</v>
       </c>
       <c r="H9">
-        <v>0.5372535018071407</v>
+        <v>0.7718708154104468</v>
       </c>
       <c r="I9">
-        <v>0.5425252988750315</v>
+        <v>0.7718708154104468</v>
       </c>
       <c r="J9">
-        <v>0.5522461372659785</v>
+        <v>0.7718708154104468</v>
       </c>
       <c r="K9">
-        <v>0.5938000783705313</v>
+        <v>0.7919365271481759</v>
       </c>
       <c r="L9">
-        <v>0.6201425129888519</v>
+        <v>0.7919365271481759</v>
       </c>
       <c r="M9">
-        <v>0.6460914065832922</v>
+        <v>0.7919365271481759</v>
       </c>
       <c r="N9">
-        <v>0.6476694125065799</v>
+        <v>0.7919365271481759</v>
       </c>
       <c r="O9">
-        <v>0.7794080897287677</v>
+        <v>0.9683082466970594</v>
       </c>
       <c r="P9">
-        <v>0.8160929166985755</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="Q9">
-        <v>0.8160929166985755</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="R9">
-        <v>0.8160929166985755</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="S9">
-        <v>0.8160929166985755</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="T9">
-        <v>0.8166530504798363</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="U9">
-        <v>0.8309020354393419</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="V9">
-        <v>0.8464920819636413</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="W9">
-        <v>0.8481023916576227</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="X9">
-        <v>0.8487824277492534</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="Y9">
-        <v>0.8506298405648323</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="Z9">
-        <v>0.8562380119722333</v>
+        <v>0.9799349273443595</v>
       </c>
       <c r="AA9">
-        <v>0.8966791620065512</v>
+        <v>0.9980719764590763</v>
       </c>
       <c r="AB9">
-        <v>0.8974507218361989</v>
+        <v>0.9980719764590763</v>
       </c>
       <c r="AC9">
-        <v>0.9034074420804025</v>
+        <v>0.9980719764590763</v>
       </c>
       <c r="AD9">
-        <v>0.9333709692342211</v>
+        <v>0.9980719764590763</v>
       </c>
       <c r="AE9">
-        <v>0.9453185274349128</v>
+        <v>0.9980719764590763</v>
       </c>
       <c r="AF9">
-        <v>0.9764074669268016</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9938233569560825</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9938233569560825</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,97 +2792,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2823592909702591</v>
+        <v>0.4462774857922419</v>
       </c>
       <c r="E10">
-        <v>0.3578763989014759</v>
+        <v>0.5268278625934508</v>
       </c>
       <c r="F10">
-        <v>0.5586118533291657</v>
+        <v>0.8287825157561619</v>
       </c>
       <c r="G10">
-        <v>0.5586118533291657</v>
+        <v>0.8287825157561619</v>
       </c>
       <c r="H10">
-        <v>0.5594561923403424</v>
+        <v>0.8287825157561619</v>
       </c>
       <c r="I10">
-        <v>0.5645197419339967</v>
+        <v>0.8287825157561619</v>
       </c>
       <c r="J10">
-        <v>0.5814127947265108</v>
+        <v>0.8287825157561619</v>
       </c>
       <c r="K10">
-        <v>0.6112078458466921</v>
+        <v>0.8287825157561619</v>
       </c>
       <c r="L10">
-        <v>0.641698717627228</v>
+        <v>0.8297199483590986</v>
       </c>
       <c r="M10">
-        <v>0.6672005783182189</v>
+        <v>0.8297199483590986</v>
       </c>
       <c r="N10">
-        <v>0.6742866331474588</v>
+        <v>0.8297199483590986</v>
       </c>
       <c r="O10">
-        <v>0.7897373077595393</v>
+        <v>0.9808786879193496</v>
       </c>
       <c r="P10">
-        <v>0.8216786582527612</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="Q10">
-        <v>0.8216786582527612</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="R10">
-        <v>0.8216786582527612</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="S10">
-        <v>0.8216786582527612</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="T10">
-        <v>0.823914670485235</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="U10">
-        <v>0.8377391474545492</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="V10">
-        <v>0.8517296027873008</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="W10">
-        <v>0.8520052743678078</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="X10">
-        <v>0.8520052743678078</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="Y10">
-        <v>0.8552771810326194</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="Z10">
-        <v>0.8582030643995597</v>
+        <v>0.9843807781682732</v>
       </c>
       <c r="AA10">
-        <v>0.8940666623699928</v>
+        <v>0.9948179732856126</v>
       </c>
       <c r="AB10">
-        <v>0.8940666623699928</v>
+        <v>0.9948179732856126</v>
       </c>
       <c r="AC10">
-        <v>0.9057571157361921</v>
+        <v>0.9948179732856126</v>
       </c>
       <c r="AD10">
-        <v>0.9328448182043404</v>
+        <v>0.9948179732856126</v>
       </c>
       <c r="AE10">
-        <v>0.9431739490454042</v>
+        <v>0.9948179732856126</v>
       </c>
       <c r="AF10">
-        <v>0.9760654115684454</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9950522866045303</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9950522866045303</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2902,97 +2902,97 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2898498454702409</v>
+        <v>0.451291975775574</v>
       </c>
       <c r="E11">
-        <v>0.3787507061525072</v>
+        <v>0.5536137715742606</v>
       </c>
       <c r="F11">
-        <v>0.5363697936024295</v>
+        <v>0.7752723830732302</v>
       </c>
       <c r="G11">
-        <v>0.5390366905931371</v>
+        <v>0.7752723830732302</v>
       </c>
       <c r="H11">
-        <v>0.5392173115830853</v>
+        <v>0.7752723830732302</v>
       </c>
       <c r="I11">
-        <v>0.5430057380282569</v>
+        <v>0.7752723830732302</v>
       </c>
       <c r="J11">
-        <v>0.5578136982523481</v>
+        <v>0.7752723830732302</v>
       </c>
       <c r="K11">
-        <v>0.5984614191560199</v>
+        <v>0.7937972545393402</v>
       </c>
       <c r="L11">
-        <v>0.6240246946152418</v>
+        <v>0.7937972545393402</v>
       </c>
       <c r="M11">
-        <v>0.6565342583519472</v>
+        <v>0.798189314266028</v>
       </c>
       <c r="N11">
-        <v>0.6583581648000945</v>
+        <v>0.798189314266028</v>
       </c>
       <c r="O11">
-        <v>0.7841886133989782</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="P11">
-        <v>0.8056460183040266</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="Q11">
-        <v>0.8063544416521377</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="R11">
-        <v>0.8063544416521377</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="S11">
-        <v>0.8063544416521377</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="T11">
-        <v>0.8063544416521377</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="U11">
-        <v>0.8250978052302183</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="V11">
-        <v>0.8407304983340784</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="W11">
-        <v>0.8430395697682913</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="X11">
-        <v>0.8430395697682913</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="Y11">
-        <v>0.8444569561575825</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="Z11">
-        <v>0.8549729255821318</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="AA11">
-        <v>0.8953665013244473</v>
+        <v>0.9827269520153959</v>
       </c>
       <c r="AB11">
-        <v>0.8960037255739698</v>
+        <v>0.9827269520153959</v>
       </c>
       <c r="AC11">
-        <v>0.9022714305836264</v>
+        <v>0.9827269520153959</v>
       </c>
       <c r="AD11">
-        <v>0.935224871264935</v>
+        <v>0.9878898532440162</v>
       </c>
       <c r="AE11">
-        <v>0.9419888698913544</v>
+        <v>0.9878898532440162</v>
       </c>
       <c r="AF11">
-        <v>0.9789427725487808</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9894856332362019</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9894856332362019</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.7925354721690084</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5283511907254766</v>
-      </c>
       <c r="G2">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>63</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.7304463191245956</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5167887497027208</v>
-      </c>
       <c r="G3">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>63</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.8386335154954762</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.6028643116356288</v>
-      </c>
       <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>63</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9315275008546712</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6345674291389879</v>
-      </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>63</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.6908574657040907</v>
       </c>
       <c r="F6">
-        <v>0.6351340689738111</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>63</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.813835919780221</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5574943825574212</v>
-      </c>
       <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>63</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.637343171281099</v>
       </c>
       <c r="F8">
-        <v>0.5704478881999708</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>63</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5357874807372371</v>
       </c>
       <c r="F9">
-        <v>0.5352800967200102</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>63</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5268278625934508</v>
       </c>
       <c r="F10">
-        <v>0.5586118533291657</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>63</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5536137715742606</v>
       </c>
       <c r="F11">
-        <v>0.5363697936024295</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>63</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7925354721690084</v>
       </c>
       <c r="F2">
-        <v>0.7063503161086999</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>63</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7304463191245956</v>
       </c>
       <c r="F3">
-        <v>0.7043765642643334</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>63</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8386335154954762</v>
       </c>
       <c r="F4">
-        <v>0.7671631325436177</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>63</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9315275008546712</v>
       </c>
       <c r="F5">
-        <v>0.7221558350514325</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>63</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8975555996050057</v>
       </c>
       <c r="F6">
-        <v>0.7205298918025196</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>63</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.813835919780221</v>
       </c>
       <c r="F7">
-        <v>0.7954987678150272</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>63</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7566058878341705</v>
       </c>
       <c r="F8">
-        <v>0.8180645001916005</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>63</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7718708154104468</v>
       </c>
       <c r="F9">
-        <v>0.7794080897287677</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>63</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8287825157561619</v>
       </c>
       <c r="F10">
-        <v>0.7897373077595393</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>63</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7752723830732302</v>
       </c>
       <c r="F11">
-        <v>0.7841886133989782</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>63</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>22</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="F2">
-        <v>0.8244415741253136</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>63</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="F3">
-        <v>0.8219400378842354</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>63</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8386335154954762</v>
       </c>
       <c r="F4">
-        <v>0.8014948695405779</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>63</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9315275008546712</v>
       </c>
       <c r="F5">
-        <v>0.8308916919216854</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>63</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8975555996050057</v>
       </c>
       <c r="F6">
-        <v>0.8093468734795141</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>63</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.813835919780221</v>
       </c>
       <c r="F7">
-        <v>0.8344908556211361</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>63</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.9669255594489048</v>
+      </c>
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8180645001916005</v>
-      </c>
       <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>63</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9683082466970594</v>
       </c>
       <c r="F9">
-        <v>0.8160929166985755</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>63</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8287825157561619</v>
       </c>
       <c r="F10">
-        <v>0.8216786582527612</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>63</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="F11">
-        <v>0.8056460183040266</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>63</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9338812381740043</v>
       </c>
       <c r="F2">
-        <v>0.9166898641298403</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>63</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>27</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9531513497648623</v>
       </c>
       <c r="F3">
-        <v>0.9120610466824398</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>63</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9349239353867813</v>
       </c>
       <c r="F4">
-        <v>0.9188074411903182</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>63</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9315275008546712</v>
       </c>
       <c r="F5">
-        <v>0.9258201336803353</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>63</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9300920588139353</v>
       </c>
       <c r="F6">
-        <v>0.9181115558954166</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>63</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.969341874289274</v>
       </c>
       <c r="F7">
-        <v>0.9102041902897428</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>63</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9669255594489048</v>
       </c>
       <c r="F8">
-        <v>0.9045596035166411</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>63</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9683082466970594</v>
       </c>
       <c r="F9">
-        <v>0.9034074420804025</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>63</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>28</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9808786879193496</v>
       </c>
       <c r="F10">
-        <v>0.9057571157361921</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>63</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>28</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.964643431784737</v>
       </c>
       <c r="F11">
-        <v>0.9022714305836264</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>63</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
